--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Year 3\Semester 2\Agile\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B67A4E-FD25-4C09-BF00-A21632EB5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -145,12 +156,15 @@
   </si>
   <si>
     <t>Aditya, Tom</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -629,24 +643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -696,7 +710,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -707,7 +721,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -717,7 +731,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -738,7 +752,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -759,7 +773,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -772,7 +786,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -790,7 +804,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -811,7 +825,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -832,7 +846,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -845,7 +859,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
@@ -862,7 +876,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -873,7 +887,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -883,7 +897,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -904,7 +918,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -925,7 +939,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -938,7 +952,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -956,7 +970,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -967,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -977,7 +991,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
@@ -998,7 +1012,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
@@ -1019,7 +1033,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1049,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1055,7 +1069,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
@@ -1075,7 +1089,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
@@ -1095,7 +1109,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
@@ -1112,7 +1126,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>35</v>
       </c>
@@ -1123,7 +1137,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1132,7 +1146,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1166,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>37</v>
       </c>
@@ -1234,7 +1248,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\.Uni Work\Year3\Sem2\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B67A4E-FD25-4C09-BF00-A21632EB5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEAB8D-DCDC-43F8-BEBA-212C20B95CF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -159,6 +157,9 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -650,17 +651,17 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -710,7 +711,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -731,7 +732,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -752,7 +753,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -786,7 +787,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -804,7 +805,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -825,7 +826,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -846,7 +847,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -859,7 +860,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
@@ -876,7 +877,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -887,7 +888,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -897,7 +898,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -908,7 +909,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -918,7 +919,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -929,7 +930,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -939,7 +940,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -952,7 +953,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -970,7 +971,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -991,7 +992,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1013,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
@@ -1033,7 +1034,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1050,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
@@ -1089,7 +1090,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
@@ -1126,7 +1127,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1167,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>37</v>
       </c>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B67A4E-FD25-4C09-BF00-A21632EB5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33A024-41A7-4774-B29A-66A1C58B6CC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -143,9 +141,6 @@
     <t>Create stored procedures</t>
   </si>
   <si>
-    <t>Implement method to access stored procedures from website</t>
-  </si>
-  <si>
     <t>Fraser,Patryk</t>
   </si>
   <si>
@@ -159,6 +154,15 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Add upload function</t>
+  </si>
+  <si>
+    <t>Clean uploaded data</t>
+  </si>
+  <si>
+    <t>Update database algorithm</t>
   </si>
 </sst>
 </file>
@@ -336,7 +340,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -647,20 +675,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -710,7 +738,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -718,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -731,7 +759,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -739,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -752,7 +780,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -760,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -773,7 +801,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -786,7 +814,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -804,7 +832,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -825,7 +853,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -846,7 +874,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -859,7 +887,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
@@ -876,7 +904,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -884,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -897,7 +925,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -905,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>19</v>
@@ -918,7 +946,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -926,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
@@ -939,7 +967,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -952,7 +980,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -970,7 +998,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -981,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -991,7 +1019,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1040,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
@@ -1033,7 +1061,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1077,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1069,7 +1097,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
@@ -1089,7 +1117,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
@@ -1109,13 +1137,13 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <f>SUM(B27:B29)</f>
-        <v>10</v>
+        <f>SUM(B27:B31)</f>
+        <v>20</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="4"/>
@@ -1126,7 +1154,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>35</v>
       </c>
@@ -1134,47 +1162,51 @@
         <v>5</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="12"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B28" s="15">
+        <v>5</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="12"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -1186,69 +1218,120 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="15">
+        <v>4</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D22:D24">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D22:D24">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D22:D24">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D27:D30">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D27:D30">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D27:D30">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33A024-41A7-4774-B29A-66A1C58B6CC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6010F-95E8-4707-A004-1DC73A3AEE44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Update database algorithm</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1187,11 +1190,11 @@
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="12"/>
@@ -1233,7 +1236,7 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="12"/>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\.Uni Work\Year3\Sem2\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEAB8D-DCDC-43F8-BEBA-212C20B95CF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C2A61-42CD-49A1-8084-24B7EE8D981F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -141,9 +143,6 @@
     <t>Create stored procedures</t>
   </si>
   <si>
-    <t>Implement method to access stored procedures from website</t>
-  </si>
-  <si>
     <t>Fraser,Patryk</t>
   </si>
   <si>
@@ -160,6 +159,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Add upload function</t>
+  </si>
+  <si>
+    <t>Clean uploaded data</t>
+  </si>
+  <si>
+    <t>Update database algorithm</t>
   </si>
 </sst>
 </file>
@@ -648,20 +656,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -711,7 +719,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -719,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -732,7 +740,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -740,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -753,7 +761,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -761,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -774,7 +782,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -787,7 +795,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -805,7 +813,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -826,7 +834,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -847,7 +855,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -860,7 +868,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
@@ -877,7 +885,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -885,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -898,7 +906,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -906,10 +914,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -919,7 +927,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -927,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -940,7 +948,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -953,7 +961,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -971,7 +979,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -982,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -992,7 +1000,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1021,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1042,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1050,7 +1058,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>31</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1070,7 +1078,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
@@ -1090,7 +1098,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
@@ -1110,13 +1118,12 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <f>SUM(B27:B29)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="4"/>
@@ -1127,7 +1134,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>35</v>
       </c>
@@ -1135,47 +1142,51 @@
         <v>5</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="12"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B28" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="12"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -1186,6 +1197,37 @@
       <c r="H29" s="12"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
@@ -1233,23 +1275,23 @@
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D27:D31">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D27:D31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
+  <conditionalFormatting sqref="D27:D31">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C2A61-42CD-49A1-8084-24B7EE8D981F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F376679C-D660-424C-B1BA-719E4EE21E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Update database algorithm</t>
+  </si>
+  <si>
+    <t>Display map</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,8 +709,8 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B3:B5)</f>
-        <v>10</v>
+        <f>SUM(B3:B6)</f>
+        <v>11</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="4"/>
@@ -730,10 +733,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -763,92 +770,95 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="5"/>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
-        <f>SUM(B8:B9)</f>
+      <c r="B8" s="3">
+        <f>SUM(B9:B10)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -856,11 +866,19 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -869,46 +887,38 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -917,104 +927,104 @@
         <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="10"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="17">
-        <f>SUM(B17:B19)</f>
+      <c r="B17" s="17">
+        <f>SUM(B18:B20)</f>
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <v>3</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1023,90 +1033,91 @@
     </row>
     <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="20" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B22" s="16">
         <v>3</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15">
         <v>1</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="12"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="15">
         <v>1</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>19</v>
@@ -1118,180 +1129,201 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="16">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="15">
-        <v>5</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
+      <c r="B27" s="16">
+        <f>SUM(B28,B32,B30,B31,B29)</f>
+        <v>14</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="12"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29" s="15">
         <v>3</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="12"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
+      <c r="C30" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6 D12:D14 D17:D19">
+  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D9:D10">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D9:D10">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="D9:D10">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
+  <conditionalFormatting sqref="D28:D32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
+  <conditionalFormatting sqref="D28:D32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
+  <conditionalFormatting sqref="D28:D32">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D6 D17:D19 D12:D14 D8:D9 D22:D24 D27:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D18:D20 D13:D15 D9:D10 D23:D25 D28:D32 D3:D7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F376679C-D660-424C-B1BA-719E4EE21E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1D971-7571-4D8E-9B26-D76B38620A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Display map</t>
+  </si>
+  <si>
+    <t>Total story points to complete -</t>
+  </si>
+  <si>
+    <t>Points completed per day</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,6 +354,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,10 +678,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,7 +729,7 @@
       </c>
       <c r="B2" s="2">
         <f>SUM(B3:B6)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="4"/>
@@ -773,7 +792,7 @@
         <v>46</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -930,7 +949,9 @@
         <v>42</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="10"/>
       <c r="I13" s="5"/>
@@ -951,7 +972,9 @@
         <v>41</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="10"/>
       <c r="I14" s="5"/>
@@ -972,7 +995,9 @@
         <v>42</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="12"/>
       <c r="I15" s="6"/>
@@ -1024,7 +1049,9 @@
         <v>41</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1042,10 +1069,12 @@
         <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1155,7 +1184,7 @@
       </c>
       <c r="B27" s="16">
         <f>SUM(B28,B32,B30,B31,B29)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="4"/>
@@ -1193,7 +1222,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>11</v>
@@ -1203,7 +1232,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="12"/>
@@ -1215,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>12</v>
@@ -1252,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1260,6 +1289,45 @@
       <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="32">
+        <f>SUM(B27,B22,B17,B12,B8,B2)</f>
+        <v>40</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="32">
+        <f>SUM(E3:E32)</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="32">
+        <f>SUM(F3:F32)</f>
+        <v>18</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" ref="G35:I35" si="0">SUM(G3:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="D36" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
@@ -1307,17 +1375,17 @@
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
+  <conditionalFormatting sqref="D28:D32 D35:D36">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
+  <conditionalFormatting sqref="D28:D32 D35:D36">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
+  <conditionalFormatting sqref="D28:D32 D35:D36">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\.Uni Work\Year3\Sem2\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C2A61-42CD-49A1-8084-24B7EE8D981F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DF33D-EF1C-4D18-B026-1DFA0A6024C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -658,18 +656,18 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -719,7 +717,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -730,7 +728,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -740,7 +738,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -751,7 +749,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
@@ -761,7 +759,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -772,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -782,7 +780,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -795,7 +793,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -813,7 +811,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -834,7 +832,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -855,7 +853,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -868,7 +866,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -906,7 +904,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -927,7 +925,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>25</v>
       </c>
@@ -948,7 +946,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
@@ -961,7 +959,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -979,7 +977,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +998,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1019,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1040,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1056,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>31</v>
       </c>
@@ -1078,7 +1076,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1096,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1116,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1132,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>35</v>
       </c>
@@ -1156,7 +1154,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>43</v>
       </c>
@@ -1178,7 +1176,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1196,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\.Uni Work\Year3\Sem2\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DF33D-EF1C-4D18-B026-1DFA0A6024C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE0AEE-BA76-4A9B-8356-22C38A5B4FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6">
@@ -1187,12 +1187,14 @@
         <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
@@ -1207,10 +1209,16 @@
         <v>11</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30">
         <v>3</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1224,7 +1232,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\.Uni Work\Year3\Sem2\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE0AEE-BA76-4A9B-8356-22C38A5B4FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4AA8A-E15B-47D9-8141-B5E3D7FFFE4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Update database algorithm</t>
+  </si>
+  <si>
+    <t>Adi</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -819,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -843,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frase\Documents\Java Workspace\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1D971-7571-4D8E-9B26-D76B38620A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C65F4-9D3A-4E7D-9A50-7584FB12B3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Points completed per day</t>
+  </si>
+  <si>
+    <t>Integrate login page &amp; procedure page</t>
+  </si>
+  <si>
+    <t>Add redirection to other pages</t>
   </si>
 </sst>
 </file>
@@ -367,7 +373,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -678,16 +732,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1035,7 +1089,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1112,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
@@ -1081,7 +1135,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
@@ -1107,7 +1161,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="4"/>
@@ -1129,10 +1183,12 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="12"/>
       <c r="I23" s="6"/>
@@ -1149,11 +1205,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1163,20 +1221,41 @@
         <v>32</v>
       </c>
       <c r="B25" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -1213,7 +1292,9 @@
         <v>1</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="9"/>
     </row>
@@ -1290,108 +1371,152 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B34" s="32">
         <f>SUM(B27,B22,B17,B12,B8,B2)</f>
-        <v>40</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E34" s="32">
         <f>SUM(E3:E32)</f>
         <v>3</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F34" s="32">
         <f>SUM(F3:F32)</f>
-        <v>18</v>
-      </c>
-      <c r="G35" s="32">
-        <f t="shared" ref="G35:I35" si="0">SUM(G3:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="32">
+        <v>19</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" ref="G34:I34" si="0">SUM(G3:G32)</f>
+        <v>2</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>40</v>
-      </c>
-      <c r="D36" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15 D18:D20 D3:D7">
+  <conditionalFormatting sqref="D23:D25">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
+  <conditionalFormatting sqref="D28:D32 D34:D35">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
+  <conditionalFormatting sqref="D28:D32 D34:D35">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
+  <conditionalFormatting sqref="D28:D32 D34:D35">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
+  <conditionalFormatting sqref="D33">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32 D35:D36">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32 D35:D36">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32 D35:D36">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D18:D20 D13:D15 D9:D10 D23:D25 D28:D32 D3:D7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D18:D20 D13:D15 D9:D10 D23:D26 D28:D33 D3:D7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frase\Documents\Java Workspace\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macat\Documents\GitHub\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C65F4-9D3A-4E7D-9A50-7584FB12B3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837B237-674A-483D-8064-CECD44ACB9CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -734,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1331,12 +1329,16 @@
         <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
@@ -1410,11 +1412,11 @@
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:I34" si="0">SUM(G3:G32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="0"/>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macat\Documents\GitHub\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837B237-674A-483D-8064-CECD44ACB9CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6FAFD-499D-4D3B-886F-241534AD67C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,18 +732,18 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -826,20 +826,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -863,7 +865,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -874,17 +876,19 @@
         <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -897,7 +901,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>21</v>
       </c>
@@ -915,7 +919,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
@@ -936,7 +940,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
@@ -957,7 +961,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="6"/>
@@ -970,7 +974,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
@@ -987,7 +991,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>23</v>
       </c>
@@ -1010,7 +1014,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -1033,7 +1037,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
@@ -1069,7 +1073,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1091,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>28</v>
       </c>
@@ -1110,7 +1114,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
@@ -1133,7 +1137,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +1158,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1174,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>31</v>
       </c>
@@ -1192,7 +1196,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1218,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>32</v>
       </c>
@@ -1238,7 +1242,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1276,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1300,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>43</v>
       </c>
@@ -1318,7 +1322,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1346,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>47</v>
       </c>
@@ -1412,18 +1416,18 @@
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:I34" si="0">SUM(G3:G32)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="24"/>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6FAFD-499D-4D3B-886F-241534AD67C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5612F2C-D8E9-4828-A3CE-B4C439D801AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -951,13 +951,15 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
@@ -1287,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6">
@@ -1357,10 +1359,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31">
         <v>3</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1374,7 +1379,10 @@
         <v>11</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1415,16 +1423,16 @@
         <v>19</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" ref="G34:I34" si="0">SUM(G3:G32)</f>
+        <f>SUM(G3:G32)</f>
         <v>6</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="G34:I34" si="0">SUM(H3:H32)</f>
+        <v>11</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(I3:I33)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Sprint 2/Sprint 2 Backlog.xlsx
+++ b/Sprint 2/Sprint 2 Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Github\AgileGroup4\Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXTERMINATOR\Desktop\Projects\AgileGroup4\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5612F2C-D8E9-4828-A3CE-B4C439D801AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635E0CB-2D64-4026-893B-C38B4C0C489D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,8 +860,15 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
@@ -1424,15 +1431,15 @@
       </c>
       <c r="G34" s="32">
         <f>SUM(G3:G32)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34" s="32">
-        <f t="shared" ref="G34:I34" si="0">SUM(H3:H32)</f>
-        <v>11</v>
+        <f t="shared" ref="H34" si="0">SUM(H3:H32)</f>
+        <v>13</v>
       </c>
       <c r="I34" s="32">
         <f>SUM(I3:I33)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
